--- a/tests/integration_test_files/config_1.xlsx
+++ b/tests/integration_test_files/config_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4FC7A2E-692C-9D4C-AD6F-A5363925FE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEB86D0-E514-0541-A320-5A556EA74297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66420" yWindow="2040" windowWidth="33260" windowHeight="19480" firstSheet="5" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="24540" yWindow="500" windowWidth="33260" windowHeight="19480" firstSheet="2" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="291">
   <si>
     <t>Epoch</t>
   </si>
@@ -292,9 +292,6 @@
     <t>BOTH</t>
   </si>
   <si>
-    <t>Pop 2</t>
-  </si>
-  <si>
     <t>60 years</t>
   </si>
   <si>
@@ -376,9 +373,6 @@
     <t>Time to recovery, defined as discharged or “ready for discharge” (as evidenced by normal body temperature and respiratory rate, and stable oxygen saturation on ambient air or &lt;= 2L supplemental oxygen); OR, in a non-ICU hospital ward (or “ready for hospital ward”) not requiring supplemental oxygen</t>
   </si>
   <si>
-    <t>Duration of supplemental oxygen</t>
-  </si>
-  <si>
     <t>Secondary Endpoint</t>
   </si>
   <si>
@@ -799,9 +793,6 @@
     <t>Treatment Element 1</t>
   </si>
   <si>
-    <t>Treatment Element 2</t>
-  </si>
-  <si>
     <t>Completed treatment 1</t>
   </si>
   <si>
@@ -832,9 +823,6 @@
     <t>Test9</t>
   </si>
   <si>
-    <t>Test Eight</t>
-  </si>
-  <si>
     <t>Test Nine</t>
   </si>
   <si>
@@ -865,9 +853,6 @@
     <t>TREATMENT</t>
   </si>
   <si>
-    <t>Follow-up Epoch</t>
-  </si>
-  <si>
     <t>FOLLOW-UP</t>
   </si>
   <si>
@@ -913,13 +898,31 @@
     <t>activityIsConditionalReason</t>
   </si>
   <si>
-    <t>Basic Demog</t>
-  </si>
-  <si>
     <t>Something weird</t>
   </si>
   <si>
     <t>Only do this if they have two heads</t>
+  </si>
+  <si>
+    <t>Sdr PREV NEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDR </t>
+  </si>
+  <si>
+    <t>sdr root</t>
+  </si>
+  <si>
+    <t>sdr DESCRIPTIOn</t>
+  </si>
+  <si>
+    <t>No description set</t>
+  </si>
+  <si>
+    <t>OBJ3</t>
+  </si>
+  <si>
+    <t>END13</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1062,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1456,10 +1459,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1470,10 +1473,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1484,10 +1487,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1508,42 +1511,42 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="F9" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="G9" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="H9" s="21" t="s">
         <v>151</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1553,33 +1556,33 @@
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>156</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G11" s="15">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1671,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1686,214 +1689,222 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="G3" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>108</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>289</v>
+      </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
@@ -2081,7 +2092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2097,90 +2108,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>72</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>134</v>
-      </c>
       <c r="G1" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
         <v>135</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>139</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" t="s">
         <v>136</v>
-      </c>
-      <c r="D2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" t="s">
         <v>172</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>173</v>
       </c>
-      <c r="C5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" t="s">
         <v>174</v>
-      </c>
-      <c r="E5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2192,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2209,65 +2220,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>189</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" t="s">
         <v>192</v>
-      </c>
-      <c r="B2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>196</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2300,137 +2308,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +2452,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2457,104 +2465,101 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>248</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2565,31 +2570,56 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
         <v>167</v>
-      </c>
-      <c r="B1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2645,7 +2675,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -2665,7 +2695,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -2696,10 +2726,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -2707,10 +2737,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -2720,41 +2750,41 @@
       <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -2765,7 +2795,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -2776,7 +2806,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -2784,10 +2814,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -2795,7 +2825,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -2804,7 +2834,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -2824,16 +2854,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2841,16 +2871,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2867,16 +2897,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2887,7 +2917,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2901,19 +2931,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2921,33 +2951,30 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2963,7 +2990,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2975,13 +3002,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2989,10 +3016,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3000,10 +3027,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3011,21 +3038,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3055,10 +3080,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>0</v>
@@ -3079,10 +3104,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3</v>
@@ -3105,10 +3130,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>21</v>
@@ -3199,29 +3224,29 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -3242,7 +3267,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3311,7 +3336,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3325,38 +3350,35 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>287</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3373,7 +3395,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3384,7 +3406,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>61</v>
@@ -3398,7 +3420,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -3412,7 +3434,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -3426,7 +3448,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -3440,13 +3462,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
       </c>
       <c r="D5" t="s">
         <v>71</v>
@@ -3462,7 +3481,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3485,7 +3504,7 @@
         <v>75</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>78</v>
@@ -3511,9 +3530,6 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>80</v>
-      </c>
       <c r="B3">
         <v>20</v>
       </c>
@@ -3521,15 +3537,15 @@
         <v>76</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
         <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -3538,10 +3554,10 @@
         <v>76</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
         <v>84</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/config_1.xlsx
+++ b/tests/integration_test_files/config_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEB86D0-E514-0541-A320-5A556EA74297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C828BDA8-9FCB-B94B-A137-B8ACB9096268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24540" yWindow="500" windowWidth="33260" windowHeight="19480" firstSheet="2" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="24540" yWindow="500" windowWidth="33260" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="289">
   <si>
     <t>Epoch</t>
   </si>
@@ -499,12 +499,6 @@
     <t>protocolVersion</t>
   </si>
   <si>
-    <t>protocolAmendment</t>
-  </si>
-  <si>
-    <t>protocolEffectiveDate</t>
-  </si>
-  <si>
     <t>protocolStatus</t>
   </si>
   <si>
@@ -517,18 +511,12 @@
     <t>Something Public</t>
   </si>
   <si>
-    <t>Somethign Clever</t>
-  </si>
-  <si>
     <t>draft</t>
   </si>
   <si>
     <t>Somethign Clever But New</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>businessTherapeuticAreas</t>
   </si>
   <si>
@@ -923,6 +911,12 @@
   </si>
   <si>
     <t>END13</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>CONFIG1</t>
   </si>
 </sst>
 </file>
@@ -994,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1032,9 +1026,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1050,9 +1041,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1062,10 +1050,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1384,286 +1372,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="16" style="7" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="17" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="B10" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="B11" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="B12" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="B13" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="B14" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="15">
-        <v>40179</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="15">
-        <v>40544</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1890,14 +1741,14 @@
     </row>
     <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
         <v>96</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>97</v>
@@ -2160,29 +2011,29 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
         <v>112</v>
@@ -2191,7 +2042,7 @@
         <v>118</v>
       </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2222,60 +2073,60 @@
       <c r="A1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>189</v>
+      <c r="B1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="G3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2307,138 +2158,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>200</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2464,102 +2315,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>204</v>
+      <c r="B1" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2584,42 +2435,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2645,22 +2496,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2675,7 +2526,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -2695,7 +2546,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -2725,116 +2576,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="A2" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="B3" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="B5" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="B6" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="B8" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="A9" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="A10" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>225</v>
+      <c r="A12" s="16" t="s">
+        <v>221</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -2854,16 +2705,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2871,16 +2722,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2897,16 +2748,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2930,20 +2781,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>268</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2951,16 +2802,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2968,13 +2819,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3001,14 +2852,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>260</v>
+      <c r="A1" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3016,10 +2867,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3027,10 +2878,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3038,10 +2889,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3050,7 +2901,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3079,13 +2930,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>180</v>
+      <c r="A1" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3094,22 +2945,22 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="28"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3129,13 +2980,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>184</v>
+      <c r="A3" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3157,7 +3008,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3179,7 +3030,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3201,7 +3052,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -3223,30 +3074,30 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="17" t="s">
-        <v>222</v>
+      <c r="C7" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="17" t="s">
-        <v>223</v>
+      <c r="C8" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -3260,14 +3111,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>224</v>
+      <c r="C9" s="22" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3349,17 +3200,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>281</v>
+      <c r="A1" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3372,13 +3223,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/config_1.xlsx
+++ b/tests/integration_test_files/config_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C828BDA8-9FCB-B94B-A137-B8ACB9096268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D450BA-D4D0-4841-8539-9A6563AF5E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24540" yWindow="500" windowWidth="33260" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="24540" yWindow="500" windowWidth="44440" windowHeight="23580" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="292">
   <si>
     <t>Epoch</t>
   </si>
@@ -319,9 +319,6 @@
     <t>endpointDescription</t>
   </si>
   <si>
-    <t>endpointPurposeDescription</t>
-  </si>
-  <si>
     <t>endpointLevel</t>
   </si>
   <si>
@@ -907,16 +904,28 @@
     <t>No description set</t>
   </si>
   <si>
-    <t>OBJ3</t>
-  </si>
-  <si>
-    <t>END13</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>CONFIG1</t>
+  </si>
+  <si>
+    <t>objectiveLabel</t>
+  </si>
+  <si>
+    <t>objectiveText</t>
+  </si>
+  <si>
+    <t>endpointLabel</t>
+  </si>
+  <si>
+    <t>endpointText</t>
+  </si>
+  <si>
+    <t>endpointPurpose</t>
+  </si>
+  <si>
+    <t>Duration of supplemental oxygen</t>
   </si>
 </sst>
 </file>
@@ -988,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1009,9 +1018,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1050,10 +1056,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1374,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1385,136 +1391,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>288</v>
+      <c r="A1" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="11" t="s">
+    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="B9" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1523,415 +1529,564 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="59.5" customWidth="1"/>
-    <col min="6" max="7" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="70.5" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="K3" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1958,91 +2113,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>134</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" t="s">
         <v>135</v>
-      </c>
-      <c r="E2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
         <v>166</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
         <v>167</v>
       </c>
-      <c r="C5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>168</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" t="s">
         <v>169</v>
-      </c>
-      <c r="F5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2071,62 +2226,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>184</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
         <v>186</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" t="s">
         <v>187</v>
-      </c>
-      <c r="C2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" t="s">
         <v>189</v>
       </c>
-      <c r="B3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>191</v>
-      </c>
-      <c r="G3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2158,138 +2313,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>199</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2315,102 +2470,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>199</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2435,42 +2590,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
         <v>161</v>
-      </c>
-      <c r="B2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" t="s">
         <v>280</v>
-      </c>
-      <c r="B3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2496,22 +2651,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2526,7 +2681,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -2546,7 +2701,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -2576,116 +2731,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>221</v>
+      <c r="A12" s="15" t="s">
+        <v>220</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -2705,16 +2860,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2722,16 +2877,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2748,16 +2903,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2781,20 +2936,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>267</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2802,16 +2957,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2819,17 +2974,17 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="11"/>
+      <c r="E4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2852,14 +3007,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>255</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2867,10 +3022,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2878,10 +3033,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2889,10 +3044,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2901,7 +3056,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2930,13 +3085,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2945,22 +3100,22 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2980,13 +3135,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3006,9 +3161,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3028,9 +3183,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3050,9 +3205,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -3072,32 +3227,32 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="16" t="s">
-        <v>219</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -3111,14 +3266,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>220</v>
+      <c r="C9" s="21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3200,17 +3355,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>276</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3223,13 +3378,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" t="s">
         <v>278</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3257,7 +3412,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>61</v>
@@ -3271,7 +3426,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -3285,7 +3440,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -3299,7 +3454,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -3313,7 +3468,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>

--- a/tests/integration_test_files/config_1.xlsx
+++ b/tests/integration_test_files/config_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D450BA-D4D0-4841-8539-9A6563AF5E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B0A79B-D40D-BE48-BFB2-368A966F691B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24540" yWindow="500" windowWidth="44440" windowHeight="23580" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="24540" yWindow="500" windowWidth="44440" windowHeight="23580" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -205,9 +205,6 @@
     <t>trialTypes</t>
   </si>
   <si>
-    <t>line|city|district|state|postal_code|GBR</t>
-  </si>
-  <si>
     <t>DUNS</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t>AP1234</t>
   </si>
   <si>
-    <t>Somewhere|In a City|In a District|In a big state|12345|FRA</t>
-  </si>
-  <si>
     <t>organisationAddress</t>
   </si>
   <si>
@@ -926,6 +920,12 @@
   </si>
   <si>
     <t>Duration of supplemental oxygen</t>
+  </si>
+  <si>
+    <t>line|district|city|state|postal_code|GBR</t>
+  </si>
+  <si>
+    <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
 </sst>
 </file>
@@ -1056,10 +1056,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1392,10 +1392,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1419,7 +1419,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1427,68 +1427,68 @@
         <v>29</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -1496,10 +1496,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1531,7 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -1551,85 +1551,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>87</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1638,16 +1638,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1656,16 +1656,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1674,16 +1674,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1692,16 +1692,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1710,16 +1710,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1728,16 +1728,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1746,16 +1746,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -1764,16 +1764,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1782,16 +1782,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1800,16 +1800,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2114,90 +2114,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
         <v>132</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>136</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" t="s">
         <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
         <v>165</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>166</v>
       </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
         <v>167</v>
-      </c>
-      <c r="E5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2226,62 +2226,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" t="s">
         <v>185</v>
-      </c>
-      <c r="B2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>189</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2314,137 +2314,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>197</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2471,101 +2471,101 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2590,42 +2590,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
         <v>160</v>
-      </c>
-      <c r="B1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2637,8 +2637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2667,7 +2667,7 @@
         <v>35</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2681,33 +2681,33 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2732,10 +2732,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -2756,41 +2756,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="B3" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="B4" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="B5" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -2801,7 +2801,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -2812,7 +2812,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -2820,10 +2820,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -2860,16 +2860,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2877,16 +2877,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2903,16 +2903,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2937,19 +2937,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>265</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2957,16 +2957,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2974,13 +2974,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3008,13 +3008,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>253</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3022,10 +3022,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3033,10 +3033,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3044,10 +3044,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3086,10 +3086,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -3136,10 +3136,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -3230,29 +3230,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -3273,7 +3273,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3284,7 +3284,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -3356,16 +3356,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>274</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3378,13 +3378,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3412,69 +3412,69 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3501,38 +3501,38 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
         <v>77</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3540,30 +3540,30 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/config_1.xlsx
+++ b/tests/integration_test_files/config_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B0A79B-D40D-BE48-BFB2-368A966F691B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B50257-DFF0-8E4A-A694-799D6E4A2FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24540" yWindow="500" windowWidth="44440" windowHeight="23580" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="24540" yWindow="500" windowWidth="44440" windowHeight="23580" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
     <sheet name="studyDesignActivities" sheetId="16" r:id="rId7"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId8"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId9"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId10"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId11"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId12"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId13"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId14"/>
-    <sheet name="configuration" sheetId="10" r:id="rId15"/>
+    <sheet name="studyDesignInterventions" sheetId="17" r:id="rId8"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId9"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
+    <sheet name="configuration" sheetId="10" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="330">
   <si>
     <t>Epoch</t>
   </si>
@@ -232,36 +233,18 @@
     <t>type</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>codes</t>
   </si>
   <si>
-    <t>An indication</t>
-  </si>
-  <si>
     <t>SNOMED:12345=Indication1</t>
   </si>
   <si>
-    <t>An intervention</t>
-  </si>
-  <si>
-    <t>ICD-10: X = Y, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>SNOMED:345678=Indication2</t>
   </si>
   <si>
-    <t>ICD-10: DD=CC, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>populationDescription</t>
   </si>
   <si>
@@ -926,13 +909,145 @@
   </si>
   <si>
     <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Indication One</t>
+  </si>
+  <si>
+    <t>Indication 1</t>
+  </si>
+  <si>
+    <t>Indication Two</t>
+  </si>
+  <si>
+    <t>Indication 2</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>Int Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 1</t>
+  </si>
+  <si>
+    <t>SPONSOR: A=B</t>
+  </si>
+  <si>
+    <t>M11: role1=role1</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>FDA: A=B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig1=desig_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Day</t>
+  </si>
+  <si>
+    <t>Admin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 1</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>12 mg</t>
+  </si>
+  <si>
+    <t>10 DAYS PER MONTH</t>
+  </si>
+  <si>
+    <t>Dur desc 1</t>
+  </si>
+  <si>
+    <t>Will vary becuase we say so</t>
+  </si>
+  <si>
+    <t>14 %</t>
+  </si>
+  <si>
+    <t>Int Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 2</t>
+  </si>
+  <si>
+    <t>M11: role2=role2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig2=desig_2</t>
+  </si>
+  <si>
+    <t>Admin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 2</t>
+  </si>
+  <si>
+    <t>Dur desc 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -970,6 +1085,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -997,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1056,14 +1177,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1392,10 +1515,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1432,63 +1555,63 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -1496,10 +1619,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1528,6 +1651,95 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -1551,85 +1763,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1638,16 +1850,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1656,16 +1868,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1674,16 +1886,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1692,16 +1904,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1710,16 +1922,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1728,16 +1940,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1746,16 +1958,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -1764,16 +1976,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1782,16 +1994,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1800,16 +2012,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2094,7 +2306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -2114,90 +2326,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>111</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>136</v>
-      </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
         <v>109</v>
       </c>
-      <c r="G5" t="s">
-        <v>115</v>
-      </c>
       <c r="H5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2205,7 +2417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -2226,62 +2438,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2294,7 +2506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -2314,137 +2526,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>191</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2453,7 +2665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2471,101 +2683,101 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2574,7 +2786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -2590,42 +2802,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2637,7 +2849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2681,13 +2893,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2701,13 +2913,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2732,10 +2944,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -2743,10 +2955,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -2756,41 +2968,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="B4" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -2801,7 +3013,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -2812,7 +3024,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -2820,10 +3032,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -2831,7 +3043,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -2840,7 +3052,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -2860,16 +3072,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2877,16 +3089,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2903,16 +3115,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2937,19 +3149,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2957,16 +3169,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2974,13 +3186,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3008,13 +3220,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3022,10 +3234,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3033,10 +3245,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3044,10 +3256,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3056,7 +3268,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3086,10 +3298,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -3110,10 +3322,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -3136,10 +3348,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -3230,29 +3442,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -3273,7 +3485,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3356,16 +3568,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3378,13 +3590,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3397,84 +3609,212 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC8B7FF-EFE8-654C-8B0D-6E64E43236D4}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G1" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="D2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K2" t="s">
+        <v>314</v>
+      </c>
+      <c r="L2" t="s">
+        <v>315</v>
+      </c>
+      <c r="M2" t="s">
+        <v>316</v>
+      </c>
+      <c r="N2" t="s">
+        <v>317</v>
+      </c>
+      <c r="O2" t="s">
+        <v>318</v>
+      </c>
+      <c r="P2" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>182</v>
+      </c>
+      <c r="R2" t="s">
+        <v>320</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>322</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>323</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
+        <v>307</v>
+      </c>
+      <c r="E3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" t="s">
+        <v>310</v>
+      </c>
+      <c r="H3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I3" t="s">
+        <v>312</v>
+      </c>
+      <c r="J3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K3" t="s">
+        <v>327</v>
+      </c>
+      <c r="L3" t="s">
+        <v>328</v>
+      </c>
+      <c r="M3" t="s">
+        <v>316</v>
+      </c>
+      <c r="N3" t="s">
+        <v>317</v>
+      </c>
+      <c r="O3" t="s">
+        <v>318</v>
+      </c>
+      <c r="P3" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>182</v>
+      </c>
+      <c r="R3" t="s">
+        <v>320</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3483,87 +3823,60 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2">
         <v>100</v>
       </c>
+      <c r="B2" t="s">
+        <v>287</v>
+      </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>288</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>20</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>289</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/config_1.xlsx
+++ b/tests/integration_test_files/config_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B50257-DFF0-8E4A-A694-799D6E4A2FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3855056-4924-BD4B-AC52-D872F08738CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24540" yWindow="500" windowWidth="44440" windowHeight="23580" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="24540" yWindow="500" windowWidth="44440" windowHeight="23580" firstSheet="1" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="333">
   <si>
     <t>Epoch</t>
   </si>
@@ -248,45 +248,18 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>Pop 1</t>
-  </si>
-  <si>
-    <t>plannedNumberOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMinimumAgeOfParticipants</t>
-  </si>
-  <si>
     <t>18 years</t>
   </si>
   <si>
-    <t>40 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>60 years</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Pop 3</t>
-  </si>
-  <si>
     <t>70 years</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>plannedMaximumAgeOfParticipants</t>
-  </si>
-  <si>
     <t>objectiveDescription</t>
   </si>
   <si>
@@ -1041,6 +1014,42 @@
   </si>
   <si>
     <t>Dur desc 2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>plannedMinimumAge</t>
+  </si>
+  <si>
+    <t>plannedMaximumAge</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>POP1</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>COHORT1</t>
+  </si>
+  <si>
+    <t>30 years</t>
+  </si>
+  <si>
+    <t>COHORT2</t>
+  </si>
+  <si>
+    <t>31 years</t>
   </si>
 </sst>
 </file>
@@ -1173,20 +1182,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1515,10 +1524,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1555,63 +1564,63 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -1619,10 +1628,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1652,86 +1661,96 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G3" t="s">
         <v>65</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H3" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G4" t="s">
+        <v>332</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1763,85 +1782,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1850,16 +1869,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1868,16 +1887,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1886,16 +1905,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1904,16 +1923,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1922,16 +1941,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1940,16 +1959,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1958,16 +1977,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -1976,16 +1995,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1994,16 +2013,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2012,16 +2031,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2326,90 +2345,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2438,62 +2457,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2526,137 +2545,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2683,101 +2702,101 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2802,42 +2821,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2893,13 +2912,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2913,13 +2932,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2944,115 +2963,115 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+        <v>229</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+        <v>230</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="B3" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="B4" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="B5" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="B7" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+        <v>156</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+        <v>157</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -3072,16 +3091,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3089,16 +3108,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3115,16 +3134,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3149,19 +3168,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3169,16 +3188,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3186,13 +3205,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3220,13 +3239,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3234,10 +3253,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3245,10 +3264,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3256,10 +3275,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3268,7 +3287,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3298,10 +3317,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -3312,20 +3331,20 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="25"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -3348,10 +3367,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -3442,29 +3461,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -3485,7 +3504,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3568,16 +3587,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3590,13 +3609,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3612,7 +3631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC8B7FF-EFE8-654C-8B0D-6E64E43236D4}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -3642,179 +3661,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="P1" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>295</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K2" t="s">
         <v>305</v>
       </c>
-      <c r="C2" t="s">
+      <c r="L2" t="s">
         <v>306</v>
       </c>
-      <c r="D2" t="s">
+      <c r="M2" t="s">
         <v>307</v>
       </c>
-      <c r="E2" t="s">
+      <c r="N2" t="s">
         <v>308</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="O2" t="s">
         <v>309</v>
       </c>
-      <c r="G2" t="s">
+      <c r="P2" t="s">
         <v>310</v>
       </c>
-      <c r="H2" t="s">
+      <c r="Q2" t="s">
+        <v>173</v>
+      </c>
+      <c r="R2" t="s">
         <v>311</v>
       </c>
-      <c r="I2" t="s">
+      <c r="S2" s="23" t="s">
         <v>312</v>
-      </c>
-      <c r="J2" t="s">
-        <v>313</v>
-      </c>
-      <c r="K2" t="s">
-        <v>314</v>
-      </c>
-      <c r="L2" t="s">
-        <v>315</v>
-      </c>
-      <c r="M2" t="s">
-        <v>316</v>
-      </c>
-      <c r="N2" t="s">
-        <v>317</v>
-      </c>
-      <c r="O2" t="s">
-        <v>318</v>
-      </c>
-      <c r="P2" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R2" t="s">
-        <v>320</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="G3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H3" t="s">
+        <v>316</v>
+      </c>
+      <c r="I3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K3" t="s">
+        <v>318</v>
+      </c>
+      <c r="L3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M3" t="s">
         <v>307</v>
       </c>
-      <c r="E3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F3" s="26" t="s">
+      <c r="N3" t="s">
+        <v>308</v>
+      </c>
+      <c r="O3" t="s">
         <v>309</v>
       </c>
-      <c r="G3" t="s">
-        <v>310</v>
-      </c>
-      <c r="H3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="P3" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>173</v>
+      </c>
+      <c r="R3" t="s">
+        <v>311</v>
+      </c>
+      <c r="S3" s="23" t="s">
         <v>312</v>
-      </c>
-      <c r="J3" t="s">
-        <v>326</v>
-      </c>
-      <c r="K3" t="s">
-        <v>327</v>
-      </c>
-      <c r="L3" t="s">
-        <v>328</v>
-      </c>
-      <c r="M3" t="s">
-        <v>316</v>
-      </c>
-      <c r="N3" t="s">
-        <v>317</v>
-      </c>
-      <c r="O3" t="s">
-        <v>318</v>
-      </c>
-      <c r="P3" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>182</v>
-      </c>
-      <c r="R3" t="s">
-        <v>320</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3839,13 +3858,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
@@ -3853,13 +3872,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>62</v>
@@ -3867,13 +3886,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>

--- a/tests/integration_test_files/config_1.xlsx
+++ b/tests/integration_test_files/config_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3855056-4924-BD4B-AC52-D872F08738CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A000A90-1282-8548-8A78-EFB55DB3F1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24540" yWindow="500" windowWidth="44440" windowHeight="23580" firstSheet="1" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="24540" yWindow="500" windowWidth="44440" windowHeight="23580" firstSheet="3" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="335">
   <si>
     <t>Epoch</t>
   </si>
@@ -1050,6 +1050,12 @@
   </si>
   <si>
     <t>31 years</t>
+  </si>
+  <si>
+    <t>empty none</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
 </sst>
 </file>
@@ -1188,10 +1194,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1663,7 +1669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -2807,10 +2813,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2857,6 +2863,14 @@
       </c>
       <c r="B5" s="6" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2987,34 +3001,34 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -3134,16 +3148,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/config_1.xlsx
+++ b/tests/integration_test_files/config_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A000A90-1282-8548-8A78-EFB55DB3F1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E58516-91AF-0F4E-A52B-BF4BE5E89B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24540" yWindow="500" windowWidth="44440" windowHeight="23580" firstSheet="3" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="24540" yWindow="500" windowWidth="44440" windowHeight="23580" firstSheet="3" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="332">
   <si>
     <t>Epoch</t>
   </si>
@@ -248,18 +248,12 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>18 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>70 years</t>
-  </si>
-  <si>
     <t>objectiveDescription</t>
   </si>
   <si>
@@ -1025,12 +1019,6 @@
     <t>plannedEnrollmentNumber</t>
   </si>
   <si>
-    <t>plannedMinimumAge</t>
-  </si>
-  <si>
-    <t>plannedMaximumAge</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -1043,19 +1031,22 @@
     <t>COHORT1</t>
   </si>
   <si>
-    <t>30 years</t>
-  </si>
-  <si>
     <t>COHORT2</t>
   </si>
   <si>
-    <t>31 years</t>
-  </si>
-  <si>
     <t>empty none</t>
   </si>
   <si>
     <t>empty</t>
+  </si>
+  <si>
+    <t>plannedAge</t>
+  </si>
+  <si>
+    <t>18 .. 30 years</t>
+  </si>
+  <si>
+    <t>31 .. 70 years</t>
   </si>
 </sst>
 </file>
@@ -1194,10 +1185,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1530,10 +1521,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1570,63 +1561,63 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -1634,10 +1625,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1667,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1680,45 +1671,42 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>322</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="B2" t="s">
         <v>323</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B2" t="s">
-        <v>327</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1726,37 +1714,30 @@
       <c r="F2">
         <v>120</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G4" t="s">
         <v>331</v>
-      </c>
-      <c r="G4" t="s">
-        <v>332</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1788,85 +1769,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1875,16 +1856,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1893,16 +1874,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1911,16 +1892,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1929,16 +1910,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1947,16 +1928,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1965,16 +1946,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1983,16 +1964,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2001,16 +1982,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2019,16 +2000,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2037,16 +2018,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2351,90 +2332,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
         <v>115</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>119</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" t="s">
         <v>116</v>
-      </c>
-      <c r="D2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
         <v>148</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>149</v>
       </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" t="s">
         <v>150</v>
-      </c>
-      <c r="E5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2463,62 +2444,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" t="s">
         <v>168</v>
-      </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>172</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2551,137 +2532,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>180</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2708,101 +2689,101 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2815,7 +2796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2827,50 +2808,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
         <v>143</v>
-      </c>
-      <c r="B1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2926,13 +2907,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2946,13 +2927,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2977,10 +2958,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -2988,10 +2969,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3001,41 +2982,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="B5" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -3046,7 +3027,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -3057,7 +3038,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -3065,10 +3046,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -3076,7 +3057,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -3085,7 +3066,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -3105,16 +3086,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3122,16 +3103,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3148,16 +3129,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3182,19 +3163,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>248</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3202,16 +3183,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3219,13 +3200,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3253,13 +3234,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>236</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3267,10 +3248,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3278,10 +3259,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3289,10 +3270,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3301,7 +3282,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3331,10 +3312,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -3355,10 +3336,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -3381,10 +3362,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -3475,29 +3456,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -3518,7 +3499,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3601,16 +3582,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3623,13 +3604,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3675,179 +3656,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>293</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" t="s">
         <v>296</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>297</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>299</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" t="s">
         <v>300</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>301</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>302</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>303</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>304</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>305</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>306</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>307</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>308</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>171</v>
+      </c>
+      <c r="R2" t="s">
         <v>309</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="23" t="s">
         <v>310</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>173</v>
-      </c>
-      <c r="R2" t="s">
-        <v>311</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" t="s">
         <v>313</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H3" t="s">
         <v>314</v>
       </c>
-      <c r="D3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>301</v>
+      </c>
+      <c r="J3" t="s">
         <v>315</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="G3" t="s">
-        <v>301</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>316</v>
       </c>
-      <c r="I3" t="s">
-        <v>303</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>317</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>305</v>
+      </c>
+      <c r="N3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O3" t="s">
+        <v>307</v>
+      </c>
+      <c r="P3" t="s">
         <v>318</v>
       </c>
-      <c r="L3" t="s">
-        <v>319</v>
-      </c>
-      <c r="M3" t="s">
-        <v>307</v>
-      </c>
-      <c r="N3" t="s">
-        <v>308</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>171</v>
+      </c>
+      <c r="R3" t="s">
         <v>309</v>
       </c>
-      <c r="P3" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>173</v>
-      </c>
-      <c r="R3" t="s">
-        <v>311</v>
-      </c>
       <c r="S3" s="23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3872,13 +3853,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
@@ -3886,13 +3867,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>62</v>
@@ -3900,13 +3881,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>

--- a/tests/integration_test_files/config_1.xlsx
+++ b/tests/integration_test_files/config_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E58516-91AF-0F4E-A52B-BF4BE5E89B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350C207C-72EE-0749-9438-9E6ABE2B5592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24540" yWindow="500" windowWidth="44440" windowHeight="23580" firstSheet="3" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51760" yWindow="2780" windowWidth="44440" windowHeight="23580" firstSheet="3" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -19,16 +19,17 @@
     <sheet name="studyDesignArms" sheetId="15" r:id="rId4"/>
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
-    <sheet name="studyDesignActivities" sheetId="16" r:id="rId7"/>
-    <sheet name="studyDesignInterventions" sheetId="17" r:id="rId8"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId9"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
-    <sheet name="configuration" sheetId="10" r:id="rId16"/>
+    <sheet name="studyDesignTiming" sheetId="18" r:id="rId7"/>
+    <sheet name="studyDesignActivities" sheetId="16" r:id="rId8"/>
+    <sheet name="studyDesignInterventions" sheetId="17" r:id="rId9"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId10"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId11"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId12"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId13"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId14"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId15"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId16"/>
+    <sheet name="configuration" sheetId="10" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,10 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="332">
-  <si>
-    <t>Epoch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="358">
   <si>
     <t>Screening</t>
   </si>
@@ -62,15 +60,6 @@
     <t>Treatment</t>
   </si>
   <si>
-    <t>Cycle</t>
-  </si>
-  <si>
-    <t>Cycle End Rule</t>
-  </si>
-  <si>
-    <t>A:</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -80,9 +69,6 @@
     <t>Child Activity</t>
   </si>
   <si>
-    <t>N: 0..2 Days</t>
-  </si>
-  <si>
     <t>Demographics</t>
   </si>
   <si>
@@ -95,36 +81,12 @@
     <t>15 min</t>
   </si>
   <si>
-    <t>P: +24 Hours</t>
-  </si>
-  <si>
-    <t>0..4 Hours</t>
-  </si>
-  <si>
-    <t>N: Pre Dose</t>
-  </si>
-  <si>
     <t>Day 24</t>
   </si>
   <si>
     <t>Day 35</t>
   </si>
   <si>
-    <t>P: +7 Days</t>
-  </si>
-  <si>
-    <t>-3..3 Days</t>
-  </si>
-  <si>
-    <t>First Cycle Start</t>
-  </si>
-  <si>
-    <t>Cycle Period</t>
-  </si>
-  <si>
-    <t>Timing</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -647,12 +609,6 @@
     <t>E5</t>
   </si>
   <si>
-    <t>Encounter xref</t>
-  </si>
-  <si>
-    <t>Window</t>
-  </si>
-  <si>
     <t>BC/Procedure/Timeline</t>
   </si>
   <si>
@@ -1047,6 +1003,129 @@
   </si>
   <si>
     <t>31 .. 70 years</t>
+  </si>
+  <si>
+    <t>SCREEN</t>
+  </si>
+  <si>
+    <t>PRE DOSE</t>
+  </si>
+  <si>
+    <t>DOSE</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>Pre Dose</t>
+  </si>
+  <si>
+    <t>Dosing</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>(EXIT)</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>timingValue</t>
+  </si>
+  <si>
+    <t>toFrom</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>TIM1</t>
+  </si>
+  <si>
+    <t>Screening timing</t>
+  </si>
+  <si>
+    <t>BEFORE</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>S2S</t>
+  </si>
+  <si>
+    <t>TIM2</t>
+  </si>
+  <si>
+    <t>Pre dose timing</t>
+  </si>
+  <si>
+    <t>Pre dose</t>
+  </si>
+  <si>
+    <t>0..4 hours</t>
+  </si>
+  <si>
+    <t>TIM3</t>
+  </si>
+  <si>
+    <t>Dosing anchor</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>1 Day</t>
+  </si>
+  <si>
+    <t>TIM4</t>
+  </si>
+  <si>
+    <t>24 Hour timing</t>
+  </si>
+  <si>
+    <t>AFTER</t>
+  </si>
+  <si>
+    <t>24 Hours</t>
+  </si>
+  <si>
+    <t>TIM5</t>
+  </si>
+  <si>
+    <t>Follow up timing</t>
+  </si>
+  <si>
+    <t>7 Days</t>
+  </si>
+  <si>
+    <t>-3..3 days</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1185,13 +1264,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,9 +1287,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1251,7 +1327,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1357,7 +1433,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1499,7 +1575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1521,114 +1597,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1657,10 +1733,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -1677,36 +1815,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1715,29 +1853,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="G3" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="G4" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -1745,7 +1883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -1769,85 +1907,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1856,16 +1994,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1874,16 +2012,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1892,16 +2030,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1910,16 +2048,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1928,16 +2066,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1946,16 +2084,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1964,16 +2102,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -1982,16 +2120,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2000,16 +2138,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2018,16 +2156,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2312,7 +2450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -2332,90 +2470,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2423,7 +2561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -2444,62 +2582,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2512,7 +2650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -2532,137 +2670,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2671,7 +2809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2689,101 +2827,101 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2792,7 +2930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -2808,50 +2946,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2878,62 +3016,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2958,10 +3096,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -2969,10 +3107,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -2980,43 +3118,43 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+        <v>32</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+        <v>34</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -3024,10 +3162,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -3035,10 +3173,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -3046,10 +3184,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -3057,7 +3195,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -3066,53 +3204,53 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3129,16 +3267,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3163,50 +3301,50 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3234,55 +3372,55 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3298,13 +3436,13 @@
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10:B11"/>
+      <selection pane="bottomRight" sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
     <col min="4" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="10.83203125" style="1"/>
@@ -3312,258 +3450,435 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>250</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>322</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>323</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>324</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>324</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>326</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>326</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>326</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>326</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>4</v>
+        <v>327</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>318</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>320</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>321</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>198</v>
+        <v>330</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>194</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4831D17-3881-DB42-AF0A-64099BD707B8}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="9" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H5" t="s">
+        <v>341</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G6" t="s">
+        <v>356</v>
+      </c>
+      <c r="H6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3582,35 +3897,35 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3622,7 +3937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC8B7FF-EFE8-654C-8B0D-6E64E43236D4}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -3656,241 +3971,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="F1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="P1" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>290</v>
-      </c>
       <c r="Q1" s="21" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M2" t="s">
+        <v>290</v>
+      </c>
+      <c r="N2" t="s">
+        <v>291</v>
+      </c>
+      <c r="O2" t="s">
+        <v>292</v>
+      </c>
+      <c r="P2" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>158</v>
+      </c>
+      <c r="R2" t="s">
         <v>294</v>
       </c>
-      <c r="C2" t="s">
+      <c r="S2" s="23" t="s">
         <v>295</v>
-      </c>
-      <c r="D2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="G2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H2" t="s">
-        <v>300</v>
-      </c>
-      <c r="I2" t="s">
-        <v>301</v>
-      </c>
-      <c r="J2" t="s">
-        <v>302</v>
-      </c>
-      <c r="K2" t="s">
-        <v>303</v>
-      </c>
-      <c r="L2" t="s">
-        <v>304</v>
-      </c>
-      <c r="M2" t="s">
-        <v>305</v>
-      </c>
-      <c r="N2" t="s">
-        <v>306</v>
-      </c>
-      <c r="O2" t="s">
-        <v>307</v>
-      </c>
-      <c r="P2" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>171</v>
-      </c>
-      <c r="R2" t="s">
-        <v>309</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C3" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="G3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H3" t="s">
         <v>299</v>
       </c>
-      <c r="H3" t="s">
-        <v>314</v>
-      </c>
       <c r="I3" t="s">
+        <v>286</v>
+      </c>
+      <c r="J3" t="s">
+        <v>300</v>
+      </c>
+      <c r="K3" t="s">
         <v>301</v>
       </c>
-      <c r="J3" t="s">
-        <v>315</v>
-      </c>
-      <c r="K3" t="s">
-        <v>316</v>
-      </c>
       <c r="L3" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="M3" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="N3" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="O3" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="P3" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="Q3" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="R3" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>63</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/config_1.xlsx
+++ b/tests/integration_test_files/config_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350C207C-72EE-0749-9438-9E6ABE2B5592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A086ACE6-4E13-4941-B73F-13465270A3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51760" yWindow="2780" windowWidth="44440" windowHeight="23580" firstSheet="3" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51760" yWindow="2780" windowWidth="44440" windowHeight="23580" firstSheet="3" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="357">
   <si>
     <t>Screening</t>
   </si>
@@ -900,18 +900,12 @@
     <t>SPONSOR: A=B</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>FDA: A=B</t>
   </si>
   <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
@@ -948,12 +942,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -1126,6 +1114,15 @@
   </si>
   <si>
     <t>-3..3 days</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
   </si>
 </sst>
 </file>
@@ -1264,10 +1261,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1287,9 +1284,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1327,7 +1324,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1433,7 +1430,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1575,7 +1572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1815,7 +1812,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>250</v>
@@ -1827,13 +1824,13 @@
         <v>260</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>52</v>
@@ -1841,10 +1838,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1858,24 +1855,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2986,10 +2983,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3120,34 +3117,34 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -3267,16 +3264,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3459,19 +3456,19 @@
         <v>250</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -3488,13 +3485,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>195</v>
@@ -3511,7 +3508,7 @@
         <v>260</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3520,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>195</v>
@@ -3532,46 +3529,46 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3583,7 +3580,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3605,7 +3602,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>180</v>
@@ -3696,7 +3693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4831D17-3881-DB42-AF0A-64099BD707B8}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -3722,123 +3719,123 @@
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I3" t="s">
         <v>341</v>
-      </c>
-      <c r="I3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -3846,31 +3843,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C6" t="s">
         <v>195</v>
       </c>
       <c r="D6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" t="s">
+        <v>315</v>
+      </c>
+      <c r="G6" t="s">
         <v>352</v>
       </c>
-      <c r="E6" t="s">
-        <v>321</v>
-      </c>
-      <c r="F6" t="s">
-        <v>319</v>
-      </c>
-      <c r="G6" t="s">
-        <v>356</v>
-      </c>
       <c r="H6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3941,8 +3938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC8B7FF-EFE8-654C-8B0D-6E64E43236D4}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4042,49 +4039,49 @@
         <v>281</v>
       </c>
       <c r="E2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" t="s">
         <v>283</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I2" t="s">
         <v>284</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>285</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>286</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>287</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>288</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>289</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>290</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>291</v>
-      </c>
-      <c r="O2" t="s">
-        <v>292</v>
-      </c>
-      <c r="P2" t="s">
-        <v>293</v>
       </c>
       <c r="Q2" t="s">
         <v>158</v>
       </c>
       <c r="R2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -4092,58 +4089,58 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D3" t="s">
         <v>281</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K3" t="s">
+        <v>297</v>
+      </c>
+      <c r="L3" t="s">
         <v>298</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>288</v>
+      </c>
+      <c r="N3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O3" t="s">
+        <v>290</v>
+      </c>
+      <c r="P3" t="s">
         <v>299</v>
-      </c>
-      <c r="I3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J3" t="s">
-        <v>300</v>
-      </c>
-      <c r="K3" t="s">
-        <v>301</v>
-      </c>
-      <c r="L3" t="s">
-        <v>302</v>
-      </c>
-      <c r="M3" t="s">
-        <v>290</v>
-      </c>
-      <c r="N3" t="s">
-        <v>291</v>
-      </c>
-      <c r="O3" t="s">
-        <v>292</v>
-      </c>
-      <c r="P3" t="s">
-        <v>303</v>
       </c>
       <c r="Q3" t="s">
         <v>158</v>
       </c>
       <c r="R3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/config_1.xlsx
+++ b/tests/integration_test_files/config_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A086ACE6-4E13-4941-B73F-13465270A3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757A8EFF-CB8A-BE47-A5B9-DD5B43C0BD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51760" yWindow="2780" windowWidth="44440" windowHeight="23580" firstSheet="3" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51760" yWindow="2780" windowWidth="44440" windowHeight="23580" firstSheet="3" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -231,9 +231,6 @@
     <t>The primary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
     <t>Clinical status assessed using a 7-category ordinal scale at Day 28</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>The secondary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Study Secondary Objective</t>
-  </si>
-  <si>
     <t>Time to clinical improvement (TTCI) defined as a National Early Warning Score 2 (NEWS2) of &lt;=2 maintained for 24 hours</t>
   </si>
   <si>
@@ -1123,6 +1117,12 @@
   </si>
   <si>
     <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -1261,10 +1261,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1284,9 +1284,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1324,7 +1324,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1430,7 +1430,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1572,7 +1572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1594,10 +1594,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1634,63 +1634,63 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>17</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1746,13 +1746,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>48</v>
@@ -1760,13 +1760,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>49</v>
@@ -1774,13 +1774,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>50</v>
@@ -1812,25 +1812,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>52</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1855,24 +1855,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" t="s">
         <v>305</v>
       </c>
-      <c r="B4" t="s">
-        <v>307</v>
-      </c>
       <c r="G4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -1884,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1904,34 +1904,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>55</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>56</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>254</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>256</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>57</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1947,42 +1947,42 @@
         <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>59</v>
+        <v>355</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>63</v>
+        <v>356</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1991,16 +1991,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2009,16 +2009,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2027,16 +2027,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2045,16 +2045,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2063,16 +2063,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2081,16 +2081,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2099,16 +2099,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2117,16 +2117,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2135,16 +2135,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2153,16 +2153,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2467,90 +2467,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
         <v>101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
         <v>133</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>134</v>
       </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" t="s">
         <v>135</v>
-      </c>
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2579,62 +2579,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" t="s">
         <v>153</v>
-      </c>
-      <c r="B2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>157</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2667,137 +2667,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>165</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2824,101 +2824,101 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2943,50 +2943,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
         <v>128</v>
-      </c>
-      <c r="B1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3042,13 +3042,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3062,13 +3062,13 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3093,10 +3093,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -3104,10 +3104,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3117,41 +3117,41 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="B5" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -3162,7 +3162,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -3173,7 +3173,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -3181,10 +3181,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>30</v>
@@ -3221,16 +3221,16 @@
         <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3238,16 +3238,16 @@
         <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3264,16 +3264,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3298,19 +3298,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>231</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3318,16 +3318,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3335,13 +3335,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3369,13 +3369,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>219</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3383,10 +3383,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3394,10 +3394,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3405,10 +3405,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3447,36 +3447,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>47</v>
@@ -3485,30 +3485,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3517,10 +3517,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3529,46 +3529,46 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3580,7 +3580,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3602,22 +3602,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3628,7 +3628,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3707,135 +3707,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H2" t="s">
         <v>335</v>
-      </c>
-      <c r="E2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" t="s">
         <v>338</v>
       </c>
-      <c r="B3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C3" t="s">
-        <v>340</v>
-      </c>
       <c r="D3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" t="s">
         <v>342</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" t="s">
         <v>343</v>
-      </c>
-      <c r="C4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E4" t="s">
-        <v>315</v>
-      </c>
-      <c r="F4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G4" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" t="s">
         <v>346</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G5" t="s">
         <v>347</v>
       </c>
-      <c r="C5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D5" t="s">
-        <v>348</v>
-      </c>
-      <c r="E5" t="s">
-        <v>316</v>
-      </c>
-      <c r="F5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G5" t="s">
-        <v>349</v>
-      </c>
       <c r="H5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -3843,31 +3843,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G6" t="s">
         <v>350</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>335</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="C6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" t="s">
-        <v>348</v>
-      </c>
-      <c r="E6" t="s">
-        <v>317</v>
-      </c>
-      <c r="F6" t="s">
-        <v>315</v>
-      </c>
-      <c r="G6" t="s">
-        <v>352</v>
-      </c>
-      <c r="H6" t="s">
-        <v>337</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3894,16 +3894,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>240</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3916,13 +3916,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3938,7 +3938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC8B7FF-EFE8-654C-8B0D-6E64E43236D4}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
@@ -3968,179 +3968,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>276</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" t="s">
         <v>279</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>281</v>
       </c>
-      <c r="E2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I2" t="s">
         <v>282</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>283</v>
       </c>
-      <c r="H2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>284</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>285</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>286</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>287</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>288</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>289</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>156</v>
+      </c>
+      <c r="R2" t="s">
         <v>290</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="23" t="s">
         <v>291</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>158</v>
-      </c>
-      <c r="R2" t="s">
-        <v>292</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="G3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H3" t="s">
+        <v>353</v>
+      </c>
+      <c r="I3" t="s">
         <v>282</v>
       </c>
-      <c r="G3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H3" t="s">
-        <v>355</v>
-      </c>
-      <c r="I3" t="s">
-        <v>284</v>
-      </c>
       <c r="J3" t="s">
+        <v>294</v>
+      </c>
+      <c r="K3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L3" t="s">
         <v>296</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>286</v>
+      </c>
+      <c r="N3" t="s">
+        <v>287</v>
+      </c>
+      <c r="O3" t="s">
+        <v>288</v>
+      </c>
+      <c r="P3" t="s">
         <v>297</v>
       </c>
-      <c r="L3" t="s">
-        <v>298</v>
-      </c>
-      <c r="M3" t="s">
-        <v>288</v>
-      </c>
-      <c r="N3" t="s">
-        <v>289</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>156</v>
+      </c>
+      <c r="R3" t="s">
         <v>290</v>
       </c>
-      <c r="P3" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>158</v>
-      </c>
-      <c r="R3" t="s">
-        <v>292</v>
-      </c>
       <c r="S3" s="23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/config_1.xlsx
+++ b/tests/integration_test_files/config_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757A8EFF-CB8A-BE47-A5B9-DD5B43C0BD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D8B59B-A4B7-F243-B348-30C55405D98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51760" yWindow="2780" windowWidth="44440" windowHeight="23580" firstSheet="3" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51760" yWindow="2780" windowWidth="44440" windowHeight="23580" firstSheet="3" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="357">
   <si>
     <t>Screening</t>
   </si>
@@ -1261,10 +1261,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1884,7 +1884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -3117,34 +3117,34 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -3264,16 +3264,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3429,11 +3429,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" sqref="A1:H1048576"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3632,9 +3632,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -3658,9 +3656,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>

--- a/tests/integration_test_files/config_1.xlsx
+++ b/tests/integration_test_files/config_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D8B59B-A4B7-F243-B348-30C55405D98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E173BC1-B3BF-9F49-80CA-5093A9A8A069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51760" yWindow="2780" windowWidth="44440" windowHeight="23580" firstSheet="3" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51760" yWindow="2780" windowWidth="44440" windowHeight="23580" firstSheet="4" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="358">
   <si>
     <t>Screening</t>
   </si>
@@ -1123,13 +1123,16 @@
   </si>
   <si>
     <t>Secondary Objective</t>
+  </si>
+  <si>
+    <t>populationSubset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1155,14 +1158,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1200,7 +1195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1228,10 +1223,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1255,16 +1246,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1593,7 +1584,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>248</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -1601,7 +1592,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1609,15 +1600,15 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1625,7 +1616,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -1633,7 +1624,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1641,7 +1632,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1649,15 +1640,15 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>109</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1665,7 +1656,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>110</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1673,7 +1664,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>111</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1681,7 +1672,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1689,15 +1680,15 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>114</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1745,16 +1736,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1811,28 +1802,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1903,37 +1894,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2449,49 +2440,52 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="61.83203125" customWidth="1"/>
+    <col min="3" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="61.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -2501,33 +2495,36 @@
       <c r="C2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" t="s">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>104</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>82</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -2537,19 +2534,22 @@
       <c r="C5" t="s">
         <v>99</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" t="s">
         <v>133</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>134</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>77</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>83</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2581,22 +2581,22 @@
       <c r="A1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2666,28 +2666,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2823,19 +2823,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3012,22 +3012,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3092,115 +3092,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>184</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -3264,16 +3264,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3297,19 +3297,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3368,13 +3368,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -3446,13 +3446,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>141</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>248</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3472,13 +3472,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3498,13 +3498,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>258</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3524,8 +3524,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3545,8 +3545,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>321</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3566,8 +3566,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>323</v>
       </c>
       <c r="D6" s="2"/>
@@ -3579,7 +3579,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>324</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -3601,7 +3601,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>325</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -3621,13 +3621,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3889,16 +3889,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3963,61 +3963,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       <c r="E2" t="s">
         <v>354</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>280</v>
       </c>
       <c r="G2" t="s">
@@ -4076,7 +4076,7 @@
       <c r="R2" t="s">
         <v>290</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="21" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>280</v>
       </c>
       <c r="G3" t="s">
@@ -4135,7 +4135,7 @@
       <c r="R3" t="s">
         <v>290</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="21" t="s">
         <v>291</v>
       </c>
     </row>

--- a/tests/integration_test_files/config_1.xlsx
+++ b/tests/integration_test_files/config_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E173BC1-B3BF-9F49-80CA-5093A9A8A069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113B864F-B4B6-7B4A-8B22-15B4DD1183F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51760" yWindow="2780" windowWidth="44440" windowHeight="23580" firstSheet="4" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="23520" yWindow="2400" windowWidth="44440" windowHeight="23580" firstSheet="4" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="360">
   <si>
     <t>Screening</t>
   </si>
@@ -1126,6 +1126,12 @@
   </si>
   <si>
     <t>populationSubset</t>
+  </si>
+  <si>
+    <t>intercurrentEventText</t>
+  </si>
+  <si>
+    <t>ICE Text</t>
   </si>
 </sst>
 </file>
@@ -1252,10 +1258,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2440,10 +2446,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D1" sqref="D1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2454,9 +2460,10 @@
     <col min="6" max="6" width="28.1640625" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="61.83203125" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>73</v>
       </c>
@@ -2484,8 +2491,11 @@
       <c r="I1" s="19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -2513,18 +2523,27 @@
       <c r="I2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -2551,6 +2570,9 @@
       </c>
       <c r="I5" t="s">
         <v>135</v>
+      </c>
+      <c r="J5" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3117,34 +3139,34 @@
       <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -3264,16 +3286,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/config_1.xlsx
+++ b/tests/integration_test_files/config_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D7AD28-EA27-FC4F-BDBA-D437943C6A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42745FE-D4DF-DB49-909B-672AA7C01FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="49100" windowHeight="26740" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51580" yWindow="500" windowWidth="49100" windowHeight="26740" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="363">
   <si>
     <t>Screening</t>
   </si>
@@ -166,9 +166,6 @@
     <t>interventionModel</t>
   </si>
   <si>
-    <t>trialTypes</t>
-  </si>
-  <si>
     <t>DUNS</t>
   </si>
   <si>
@@ -1139,6 +1136,12 @@
   </si>
   <si>
     <t>organization</t>
+  </si>
+  <si>
+    <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>spare</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1263,12 +1266,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1587,7 +1584,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1598,10 +1595,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1625,7 +1622,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1633,68 +1630,68 @@
         <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>17</v>
@@ -1702,10 +1699,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1767,179 +1764,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>48</v>
-      </c>
       <c r="E1" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>275</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" t="s">
         <v>277</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>278</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="E2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" t="s">
         <v>280</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>351</v>
+      </c>
+      <c r="I2" t="s">
         <v>281</v>
       </c>
-      <c r="H2" t="s">
-        <v>352</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>282</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>283</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>284</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>285</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>286</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>287</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>288</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" t="s">
         <v>289</v>
       </c>
-      <c r="Q2" t="s">
-        <v>156</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="21" t="s">
         <v>290</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" t="s">
         <v>292</v>
       </c>
-      <c r="C3" t="s">
-        <v>293</v>
-      </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" t="s">
         <v>280</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>352</v>
+      </c>
+      <c r="I3" t="s">
         <v>281</v>
       </c>
-      <c r="H3" t="s">
-        <v>353</v>
-      </c>
-      <c r="I3" t="s">
-        <v>282</v>
-      </c>
       <c r="J3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K3" t="s">
         <v>294</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>295</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>285</v>
+      </c>
+      <c r="N3" t="s">
+        <v>286</v>
+      </c>
+      <c r="O3" t="s">
+        <v>287</v>
+      </c>
+      <c r="P3" t="s">
         <v>296</v>
       </c>
-      <c r="M3" t="s">
-        <v>286</v>
-      </c>
-      <c r="N3" t="s">
-        <v>287</v>
-      </c>
-      <c r="O3" t="s">
-        <v>288</v>
-      </c>
-      <c r="P3" t="s">
-        <v>297</v>
-      </c>
       <c r="Q3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R3" t="s">
+        <v>289</v>
+      </c>
+      <c r="S3" s="21" t="s">
         <v>290</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -1964,44 +1961,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" t="s">
         <v>259</v>
       </c>
-      <c r="C2" t="s">
-        <v>260</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" t="s">
         <v>261</v>
       </c>
-      <c r="C3" t="s">
-        <v>262</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2030,36 +2027,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>300</v>
-      </c>
       <c r="G1" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" t="s">
         <v>301</v>
-      </c>
-      <c r="B2" t="s">
-        <v>302</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2068,29 +2065,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" t="s">
         <v>303</v>
       </c>
-      <c r="B3" t="s">
-        <v>304</v>
-      </c>
       <c r="G3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2122,85 +2119,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="G1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2209,16 +2206,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2227,16 +2224,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2245,16 +2242,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2263,16 +2260,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2281,16 +2278,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2299,16 +2296,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2317,16 +2314,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2335,16 +2332,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2353,16 +2350,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2371,16 +2368,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2686,114 +2683,114 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>357</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
         <v>100</v>
       </c>
-      <c r="F2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" t="s">
-        <v>101</v>
-      </c>
       <c r="J2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
         <v>131</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" t="s">
         <v>132</v>
       </c>
-      <c r="C5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>133</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" t="s">
         <v>134</v>
       </c>
-      <c r="G5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" t="s">
-        <v>135</v>
-      </c>
       <c r="J5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -2822,62 +2819,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" t="s">
         <v>152</v>
-      </c>
-      <c r="C2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" t="s">
         <v>154</v>
       </c>
-      <c r="B3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>156</v>
-      </c>
-      <c r="G3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2910,137 +2907,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3067,101 +3064,101 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>187</v>
-      </c>
       <c r="D1" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3186,50 +3183,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
         <v>126</v>
-      </c>
-      <c r="B2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" t="s">
         <v>243</v>
-      </c>
-      <c r="B3" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" t="s">
         <v>306</v>
-      </c>
-      <c r="B6" t="s">
-        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3264,13 +3261,13 @@
         <v>20</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3287,30 +3284,30 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3322,7 +3319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7212FE-A136-8D4C-AA3B-5DD593CAD8CC}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3336,7 +3333,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3349,10 +3346,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3362,10 +3359,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3377,10 +3374,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -3388,10 +3385,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -3401,41 +3398,41 @@
       <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="B4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -3443,10 +3440,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>37</v>
+        <v>361</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -3457,7 +3454,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -3465,10 +3462,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -3476,88 +3473,122 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3582,19 +3613,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>230</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3602,16 +3633,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3619,13 +3650,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3653,13 +3684,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>218</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3667,10 +3698,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3678,10 +3709,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3689,10 +3720,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3701,7 +3732,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3731,68 +3762,68 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>142</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>144</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3801,58 +3832,58 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3864,7 +3895,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3886,22 +3917,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3912,7 +3943,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3921,7 +3952,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -3987,135 +4018,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>329</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" t="s">
         <v>331</v>
-      </c>
-      <c r="B2" t="s">
-        <v>332</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2" t="s">
         <v>333</v>
       </c>
-      <c r="E2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>334</v>
-      </c>
-      <c r="H2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" t="s">
         <v>336</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>337</v>
       </c>
-      <c r="C3" t="s">
-        <v>338</v>
-      </c>
       <c r="D3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F3" t="s">
         <v>312</v>
-      </c>
-      <c r="F3" t="s">
-        <v>313</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" t="s">
         <v>340</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" t="s">
         <v>341</v>
       </c>
-      <c r="C4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G4" t="s">
         <v>342</v>
-      </c>
-      <c r="E4" t="s">
-        <v>313</v>
-      </c>
-      <c r="F4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G4" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" t="s">
         <v>344</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" t="s">
         <v>345</v>
       </c>
-      <c r="C5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G5" t="s">
         <v>346</v>
       </c>
-      <c r="E5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F5" t="s">
-        <v>313</v>
-      </c>
-      <c r="G5" t="s">
-        <v>347</v>
-      </c>
       <c r="H5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -4123,31 +4154,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" t="s">
         <v>348</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G6" t="s">
         <v>349</v>
       </c>
-      <c r="C6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" t="s">
-        <v>346</v>
-      </c>
-      <c r="E6" t="s">
-        <v>315</v>
-      </c>
-      <c r="F6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>334</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>350</v>
-      </c>
-      <c r="H6" t="s">
-        <v>335</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -4174,16 +4205,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4196,13 +4227,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
         <v>241</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/config_1.xlsx
+++ b/tests/integration_test_files/config_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42745FE-D4DF-DB49-909B-672AA7C01FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ABF610-9FF0-BC45-BE10-0289A34A36AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51580" yWindow="500" windowWidth="49100" windowHeight="26740" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1117,12 +1117,6 @@
     <t>Experimental Intervention</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
-  </si>
-  <si>
     <t>populationSubset</t>
   </si>
   <si>
@@ -1142,6 +1136,12 @@
   </si>
   <si>
     <t>spare</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -2099,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2162,7 +2162,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>81</v>
@@ -2186,7 +2186,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>82</v>
@@ -2692,7 +2692,7 @@
         <v>50</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>94</v>
@@ -2710,7 +2710,7 @@
         <v>95</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2742,7 +2742,7 @@
         <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2750,7 +2750,7 @@
         <v>128</v>
       </c>
       <c r="J3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2758,7 +2758,7 @@
         <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2790,7 +2790,7 @@
         <v>134</v>
       </c>
       <c r="J5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3298,7 +3298,7 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -3333,7 +3333,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3349,7 +3349,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -3361,7 +3361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>124</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>

--- a/tests/integration_test_files/config_1.xlsx
+++ b/tests/integration_test_files/config_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ABF610-9FF0-BC45-BE10-0289A34A36AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F6C865-BB2A-9546-8ED2-5F5FD0FFD085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -460,12 +460,6 @@
     <t>Really really bad shit</t>
   </si>
   <si>
-    <t>Clinical Study Sponsor</t>
-  </si>
-  <si>
-    <t>Study Registry</t>
-  </si>
-  <si>
     <t>SPONSOR:T2_DIABETES=Type 2 diabetes, SNOMED: 73211009=Diabetes mellitus (disorder)</t>
   </si>
   <si>
@@ -1142,6 +1136,12 @@
   </si>
   <si>
     <t>Trial Secondary Objective</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Company</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
   </si>
 </sst>
 </file>
@@ -1595,10 +1595,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1764,61 +1764,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>45</v>
       </c>
       <c r="G1" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>273</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -1826,58 +1826,58 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" t="s">
         <v>276</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>278</v>
       </c>
-      <c r="E2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I2" t="s">
         <v>279</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>280</v>
       </c>
-      <c r="H2" t="s">
-        <v>351</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>281</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>282</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>283</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>284</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>285</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>286</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>153</v>
+      </c>
+      <c r="R2" t="s">
         <v>287</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="21" t="s">
         <v>288</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>155</v>
-      </c>
-      <c r="R2" t="s">
-        <v>289</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -1885,58 +1885,58 @@
         <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H3" t="s">
+        <v>350</v>
+      </c>
+      <c r="I3" t="s">
         <v>279</v>
       </c>
-      <c r="G3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H3" t="s">
-        <v>352</v>
-      </c>
-      <c r="I3" t="s">
-        <v>281</v>
-      </c>
       <c r="J3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K3" t="s">
+        <v>292</v>
+      </c>
+      <c r="L3" t="s">
         <v>293</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>283</v>
+      </c>
+      <c r="N3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O3" t="s">
+        <v>285</v>
+      </c>
+      <c r="P3" t="s">
         <v>294</v>
       </c>
-      <c r="L3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M3" t="s">
-        <v>285</v>
-      </c>
-      <c r="N3" t="s">
-        <v>286</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R3" t="s">
         <v>287</v>
       </c>
-      <c r="P3" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>155</v>
-      </c>
-      <c r="R3" t="s">
-        <v>289</v>
-      </c>
       <c r="S3" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -1961,13 +1961,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>47</v>
@@ -1978,10 +1978,10 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>48</v>
@@ -1992,10 +1992,10 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>49</v>
@@ -2027,25 +2027,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>51</v>
@@ -2053,10 +2053,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2070,24 +2070,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" t="s">
         <v>302</v>
       </c>
-      <c r="B4" t="s">
-        <v>304</v>
-      </c>
       <c r="G4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -2099,7 +2099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2125,10 +2125,10 @@
         <v>53</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>54</v>
@@ -2140,13 +2140,13 @@
         <v>55</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>251</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>253</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>56</v>
@@ -2162,7 +2162,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>81</v>
@@ -2186,7 +2186,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>82</v>
@@ -2373,7 +2373,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
@@ -2692,7 +2692,7 @@
         <v>50</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>94</v>
@@ -2710,7 +2710,7 @@
         <v>95</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2724,7 +2724,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E2" t="s">
         <v>99</v>
@@ -2742,7 +2742,7 @@
         <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2750,7 +2750,7 @@
         <v>128</v>
       </c>
       <c r="J3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2758,7 +2758,7 @@
         <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2772,7 +2772,7 @@
         <v>98</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E5" t="s">
         <v>132</v>
@@ -2790,7 +2790,7 @@
         <v>134</v>
       </c>
       <c r="J5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -2822,59 +2822,59 @@
         <v>72</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" t="s">
         <v>150</v>
-      </c>
-      <c r="B2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>154</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2910,134 +2910,134 @@
         <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>162</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3067,98 +3067,98 @@
         <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3199,34 +3199,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -3238,8 +3238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3261,7 +3261,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>21</v>
@@ -3284,10 +3284,10 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>362</v>
       </c>
       <c r="F2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3298,16 +3298,16 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>361</v>
       </c>
       <c r="F3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3333,7 +3333,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3349,7 +3349,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -3374,10 +3374,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -3399,7 +3399,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -3410,7 +3410,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>124</v>
@@ -3462,10 +3462,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>30</v>
@@ -3533,16 +3533,16 @@
         <v>28</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3550,16 +3550,16 @@
         <v>29</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3613,19 +3613,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>228</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3633,16 +3633,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3650,13 +3650,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3684,13 +3684,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>216</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3698,10 +3698,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3709,10 +3709,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3720,10 +3720,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3762,36 +3762,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>46</v>
@@ -3800,30 +3800,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3832,10 +3832,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3844,46 +3844,46 @@
         <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3895,7 +3895,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3917,22 +3917,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3943,7 +3943,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -4018,135 +4018,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H2" t="s">
         <v>332</v>
-      </c>
-      <c r="E2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
         <v>335</v>
       </c>
-      <c r="B3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C3" t="s">
-        <v>337</v>
-      </c>
       <c r="D3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" t="s">
         <v>339</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" t="s">
         <v>340</v>
-      </c>
-      <c r="C4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F4" t="s">
-        <v>312</v>
-      </c>
-      <c r="G4" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" t="s">
         <v>343</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G5" t="s">
         <v>344</v>
       </c>
-      <c r="C5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E5" t="s">
-        <v>313</v>
-      </c>
-      <c r="F5" t="s">
-        <v>312</v>
-      </c>
-      <c r="G5" t="s">
-        <v>346</v>
-      </c>
       <c r="H5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -4154,31 +4154,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G6" t="s">
         <v>347</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="C6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" t="s">
-        <v>345</v>
-      </c>
-      <c r="E6" t="s">
-        <v>314</v>
-      </c>
-      <c r="F6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G6" t="s">
-        <v>349</v>
-      </c>
-      <c r="H6" t="s">
-        <v>334</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4205,16 +4205,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>237</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4227,13 +4227,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
